--- a/Container/Data/Tiere.xlsx
+++ b/Container/Data/Tiere.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6FBAD-F1EE-452B-BBCB-F7EE1C6286B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0918E05-11A4-40F4-AC5F-0B252922A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Spinne" sheetId="6" r:id="rId2"/>
     <sheet name="Greif" sheetId="5" r:id="rId3"/>
     <sheet name="Esel" sheetId="7" r:id="rId4"/>
-    <sheet name="Hund" sheetId="9" r:id="rId5"/>
-    <sheet name="Wolf" sheetId="8" r:id="rId6"/>
-    <sheet name="Pferd" sheetId="1" r:id="rId7"/>
-    <sheet name="RahKariPferd" sheetId="3" r:id="rId8"/>
-    <sheet name="Rabe" sheetId="11" r:id="rId9"/>
+    <sheet name="Wolf" sheetId="8" r:id="rId5"/>
+    <sheet name="Pferd" sheetId="1" r:id="rId6"/>
+    <sheet name="RahKariPferd" sheetId="3" r:id="rId7"/>
+    <sheet name="Rabe" sheetId="11" r:id="rId8"/>
+    <sheet name="Hund" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="132">
   <si>
     <t>Luck</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Schnabel</t>
+  </si>
+  <si>
+    <t>Hund</t>
   </si>
 </sst>
 </file>
@@ -3999,11 +4002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683B3C9F-7F6B-42DB-9C3A-EA93FEE64539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562AA5D-A966-4CD2-996A-B5F601BD4530}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4194,7 +4197,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -4280,7 +4283,7 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -4348,7 +4351,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -4366,7 +4369,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -4771,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -4783,7 +4786,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4796,7 +4799,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
@@ -4827,11 +4830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562AA5D-A966-4CD2-996A-B5F601BD4530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4877,7 +4880,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -4935,13 +4938,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -4964,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -4993,7 +4996,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -5063,7 +5066,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>61</v>
@@ -5086,12 +5089,14 @@
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
@@ -5108,7 +5113,7 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -5135,13 +5140,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
@@ -5176,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -5194,7 +5199,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -5206,7 +5211,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
@@ -5224,7 +5229,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -5254,7 +5259,7 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -5313,7 +5318,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -5342,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -5372,7 +5377,7 @@
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -5402,13 +5407,13 @@
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>96</v>
@@ -5432,13 +5437,13 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>100</v>
@@ -5462,7 +5467,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -5474,7 +5479,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -5492,7 +5497,7 @@
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -5522,7 +5527,7 @@
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -5599,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -5611,7 +5616,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5624,13 +5629,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5638,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5646,7 +5651,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5655,841 +5660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B8+B9</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>400</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$17*0.2</f>
-        <v>80</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1">
-        <f>$B$17*0.7</f>
-        <v>280</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="1">
-        <f>$B$17*0.25</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="1">
-        <f>$B$17*0.25</f>
-        <v>100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>180</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC02F29-A4F1-4309-AA73-F21496265BCD}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7315,12 +6490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF096D00-B0A2-465F-BB1D-1843A6F8BDDE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7359,7 +6534,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -7386,7 +6561,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -7413,7 +6588,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -7440,7 +6615,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -7576,7 +6751,7 @@
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -7656,7 +6831,7 @@
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -7684,7 +6859,7 @@
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -7712,7 +6887,7 @@
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -8084,4 +7259,833 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683B3C9F-7F6B-42DB-9C3A-EA93FEE64539}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Container/Data/Tiere.xlsx
+++ b/Container/Data/Tiere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52531DDC-F0EC-432C-9462-722A0A427AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC3745-8B54-477C-B10F-EEEC18CFB169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -10807,7 +10807,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11610,7 +11610,7 @@
         <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>10500</v>
+        <v>13875</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -15128,7 +15128,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.703125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22430,7 +22430,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/Container/Data/Tiere.xlsx
+++ b/Container/Data/Tiere.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0535A5-9927-4031-8906-29AC9343BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943FE1-878F-4C2D-842F-F3FBE08E22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="209">
   <si>
     <t>Luck</t>
   </si>
@@ -699,6 +699,12 @@
   <si>
     <t>Fußkick</t>
   </si>
+  <si>
+    <t>-brennen</t>
+  </si>
+  <si>
+    <t>- Brennen</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +787,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -12573,8 +12580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F52EAA-42AE-4FDA-AC67-88243F815507}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12643,7 +12650,9 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -13435,8 +13444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1653BEC8-7770-4F47-BCDC-1026C854511D}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13505,7 +13514,9 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>

--- a/Container/Data/Tiere.xlsx
+++ b/Container/Data/Tiere.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4164A-A58B-40B8-8AA1-CAB0A6F6BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873310DB-DADB-4DAC-900E-54633A5F18B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index" sheetId="12" r:id="rId1"/>
+    <sheet name="Index" sheetId="46" r:id="rId1"/>
     <sheet name="None" sheetId="10" r:id="rId2"/>
     <sheet name="Taube" sheetId="42" r:id="rId3"/>
     <sheet name="Affe" sheetId="41" r:id="rId4"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5097" uniqueCount="209">
   <si>
     <t>Luck</t>
   </si>
@@ -469,13 +469,7 @@
     <t>Trainingswert</t>
   </si>
   <si>
-    <t>Affe</t>
-  </si>
-  <si>
     <t>Esel</t>
-  </si>
-  <si>
-    <t>RahKari Pferd</t>
   </si>
   <si>
     <t>Skorpion</t>
@@ -559,16 +553,7 @@
     <t>Papagei</t>
   </si>
   <si>
-    <t>Pinguin</t>
-  </si>
-  <si>
-    <t>Schildkröte</t>
-  </si>
-  <si>
     <t>Krake</t>
-  </si>
-  <si>
-    <t>Wal</t>
   </si>
   <si>
     <t>Ratte</t>
@@ -583,18 +568,6 @@
     <t>Seeschlange</t>
   </si>
   <si>
-    <t>Delfin</t>
-  </si>
-  <si>
-    <t>Chamäleon</t>
-  </si>
-  <si>
-    <t>Frosch</t>
-  </si>
-  <si>
-    <t>(Giftfrösche)</t>
-  </si>
-  <si>
     <t>Schlange</t>
   </si>
   <si>
@@ -605,9 +578,6 @@
   </si>
   <si>
     <t>Giftstich</t>
-  </si>
-  <si>
-    <t>Ideen</t>
   </si>
   <si>
     <t>Entenvogel</t>
@@ -634,9 +604,6 @@
     <t>Für Menschen tödlich</t>
   </si>
   <si>
-    <t>Starker Wolf</t>
-  </si>
-  <si>
     <t>Kralle</t>
   </si>
   <si>
@@ -647,12 +614,6 @@
   </si>
   <si>
     <t>Strauß</t>
-  </si>
-  <si>
-    <t>Preis</t>
-  </si>
-  <si>
-    <t>RareBonus</t>
   </si>
   <si>
     <t>Lootprofil</t>
@@ -670,9 +631,6 @@
     <t>Stein</t>
   </si>
   <si>
-    <t>Erwachtes Ross</t>
-  </si>
-  <si>
     <t>Taube</t>
   </si>
   <si>
@@ -685,18 +643,6 @@
     <t>SpinnenGiftbiss</t>
   </si>
   <si>
-    <t>Reitspinne klein</t>
-  </si>
-  <si>
-    <t>Reitspinne mittel</t>
-  </si>
-  <si>
-    <t>Reitspinne groß</t>
-  </si>
-  <si>
-    <t>Reitspinne riesig</t>
-  </si>
-  <si>
     <t>Fußkick</t>
   </si>
   <si>
@@ -704,6 +650,60 @@
   </si>
   <si>
     <t>- Brennen</t>
+  </si>
+  <si>
+    <t>Preis Kaiserreich</t>
+  </si>
+  <si>
+    <t>Preis Rah Kari</t>
+  </si>
+  <si>
+    <t>Reitspinne riesig</t>
+  </si>
+  <si>
+    <t>Reitspinne groß</t>
+  </si>
+  <si>
+    <t>Reitspinne mittel</t>
+  </si>
+  <si>
+    <t>Reitspinne klein</t>
+  </si>
+  <si>
+    <t>Erwachtes Ross</t>
+  </si>
+  <si>
+    <t>Starker Wolf</t>
+  </si>
+  <si>
+    <t>RahKari Pferd</t>
+  </si>
+  <si>
+    <t>Delfin</t>
+  </si>
+  <si>
+    <t>Wal</t>
+  </si>
+  <si>
+    <t>Schildkröte</t>
+  </si>
+  <si>
+    <t>Pinguin</t>
+  </si>
+  <si>
+    <t>(Giftfrösche)</t>
+  </si>
+  <si>
+    <t>Frosch</t>
+  </si>
+  <si>
+    <t>Chamäleon</t>
+  </si>
+  <si>
+    <t>Ideen</t>
+  </si>
+  <si>
+    <t>Affe</t>
   </si>
 </sst>
 </file>
@@ -732,14 +732,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -757,6 +749,14 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -782,10 +782,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -794,8 +794,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1080,252 +1080,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4BA328-208A-41C8-B7C1-6840D1498FAF}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.05859375" customWidth="1"/>
+    <col min="3" max="3" width="13.87890625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>12000</v>
+      </c>
+      <c r="C2">
+        <v>9000</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>35000</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>75000</v>
+      </c>
+      <c r="C4">
+        <v>55000</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+      <c r="C5">
+        <v>8000</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6">
+        <v>5500</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>158</v>
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>168</v>
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>32000</v>
+      </c>
+      <c r="C8">
+        <v>12000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>115</v>
       </c>
+      <c r="B9">
+        <v>94000</v>
+      </c>
+      <c r="C9">
+        <v>94000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>1500</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>6000</v>
+      </c>
+      <c r="C13">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14">
+        <v>25000</v>
+      </c>
+      <c r="C14">
+        <v>22000</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>9000</v>
+      </c>
+      <c r="C15">
+        <v>12000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="B16">
+        <v>50000</v>
+      </c>
+      <c r="C16">
+        <v>42000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <v>8500</v>
+      </c>
+      <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>4500</v>
+      </c>
+      <c r="C18">
+        <v>3200</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="B19">
+        <v>80000</v>
+      </c>
+      <c r="C19">
+        <v>80000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>121</v>
       </c>
+      <c r="B20">
+        <v>4500</v>
+      </c>
+      <c r="C20">
+        <v>6000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="B21">
+        <v>15000</v>
+      </c>
+      <c r="C21">
+        <v>13000</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>164</v>
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
-        <v>157</v>
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23">
+        <v>1300</v>
+      </c>
+      <c r="C23">
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
-        <v>172</v>
+      <c r="A24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24">
+        <v>2500</v>
+      </c>
+      <c r="C24">
+        <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
-        <v>167</v>
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25">
+        <v>2200</v>
+      </c>
+      <c r="C25">
+        <v>2200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>900</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>116</v>
       </c>
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>900</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
-        <v>185</v>
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>5500</v>
+      </c>
+      <c r="C28">
+        <v>8000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
-        <v>189</v>
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>11000</v>
+      </c>
+      <c r="C29">
+        <v>8000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>35000</v>
+      </c>
+      <c r="C30">
+        <v>32000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
-        <v>156</v>
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>18000</v>
+      </c>
+      <c r="C31">
+        <v>22000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>3000</v>
+      </c>
+      <c r="C33">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="B34">
+        <v>3200</v>
+      </c>
+      <c r="C34">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+      <c r="B38">
+        <v>9000</v>
+      </c>
+      <c r="C38">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+        <v>194</v>
+      </c>
+      <c r="B39">
+        <v>15000</v>
+      </c>
+      <c r="C39">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="B40">
+        <v>30000</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-    <sortCondition ref="A1:A34"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1334,7 +1567,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1630,8 +1863,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1908,7 +2141,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -1991,10 +2224,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -2070,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -2078,19 +2311,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1080</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2340,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2406,8 +2638,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2684,7 +2916,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -2767,10 +2999,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -2846,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -2854,19 +3086,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>990</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +3115,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3183,8 +3414,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3210,7 +3441,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -3237,7 +3468,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -3264,7 +3495,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -3291,7 +3522,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -3317,7 +3548,7 @@
       <c r="B17" s="1">
         <v>170</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -3343,7 +3574,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -3370,7 +3601,7 @@
         <f>$B$17*0.2</f>
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -3397,7 +3628,7 @@
         <f>$B$17*0.7</f>
         <v>118.99999999999999</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -3424,7 +3655,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -3451,7 +3682,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -3461,7 +3692,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -3478,7 +3709,7 @@
         <f>$B$17*0.25</f>
         <v>42.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -3505,7 +3736,7 @@
         <f>$B$17*0.25</f>
         <v>42.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -3531,7 +3762,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -3544,10 +3775,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -3557,7 +3788,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -3577,7 +3808,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -3594,7 +3825,7 @@
       <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -3624,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -3632,19 +3863,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9650</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -3662,7 +3892,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3869,7 +4099,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -3960,8 +4190,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -3987,7 +4217,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -4014,7 +4244,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -4041,7 +4271,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -4068,7 +4298,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -4094,7 +4324,7 @@
       <c r="B17" s="1">
         <v>450</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -4120,7 +4350,7 @@
       <c r="B18" s="1">
         <v>26</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -4147,7 +4377,7 @@
         <f>$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -4174,7 +4404,7 @@
         <f>$B$17*0.7</f>
         <v>315</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -4201,7 +4431,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -4228,7 +4458,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -4238,7 +4468,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -4255,7 +4485,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -4282,7 +4512,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -4308,7 +4538,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -4321,10 +4551,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -4334,7 +4564,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -4354,7 +4584,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
@@ -4373,7 +4603,7 @@
       <c r="B28" s="3">
         <v>250</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -4403,7 +4633,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>48</v>
@@ -4411,19 +4641,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9187.5</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +4670,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4739,8 +4968,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>33</v>
@@ -4766,7 +4995,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -4793,7 +5022,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -4820,7 +5049,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -4847,7 +5076,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -4873,7 +5102,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -4899,7 +5128,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -4926,7 +5155,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -4953,7 +5182,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -4980,7 +5209,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -5007,7 +5236,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -5017,7 +5246,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -5034,7 +5263,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -5061,7 +5290,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -5087,7 +5316,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -5100,10 +5329,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -5113,7 +5342,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -5133,7 +5362,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
@@ -5152,7 +5381,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -5182,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -5190,19 +5419,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1350</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
@@ -5220,7 +5448,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5427,7 +5655,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -5518,8 +5746,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -5545,7 +5773,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -5572,7 +5800,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -5599,7 +5827,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -5626,7 +5854,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -5652,7 +5880,7 @@
       <c r="B17" s="1">
         <v>950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -5678,7 +5906,7 @@
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -5705,7 +5933,7 @@
         <f>$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -5732,7 +5960,7 @@
         <f>$B$17*0.7</f>
         <v>665</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -5759,7 +5987,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -5786,7 +6014,7 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -5796,7 +6024,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -5813,7 +6041,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -5840,7 +6068,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -5866,7 +6094,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -5879,10 +6107,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -5892,7 +6120,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -5912,7 +6140,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -5929,7 +6157,7 @@
       <c r="B28" s="3">
         <v>40</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -5959,7 +6187,7 @@
         <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -5967,19 +6195,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>8400</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6224,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6293,8 +6520,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -6320,7 +6547,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -6347,7 +6574,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -6374,7 +6601,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -6401,7 +6628,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -6427,7 +6654,7 @@
       <c r="B17" s="1">
         <v>190</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -6453,7 +6680,7 @@
       <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -6480,7 +6707,7 @@
         <f>$B$17*0.2</f>
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -6507,7 +6734,7 @@
         <f>$B$17*0.7</f>
         <v>133</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -6534,7 +6761,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -6561,7 +6788,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -6571,7 +6798,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -6588,7 +6815,7 @@
         <f>$B$17*0.25</f>
         <v>47.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -6615,7 +6842,7 @@
         <f>$B$17*0.25</f>
         <v>47.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -6641,7 +6868,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -6654,10 +6881,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -6667,7 +6894,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -6687,7 +6914,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -6704,7 +6931,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -6734,7 +6961,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>22</v>
@@ -6742,19 +6969,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4350</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +6998,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -6979,7 +7205,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -7070,8 +7296,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -7097,7 +7323,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -7124,7 +7350,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -7151,7 +7377,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -7178,7 +7404,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -7204,7 +7430,7 @@
       <c r="B17" s="1">
         <v>130</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -7230,7 +7456,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -7257,7 +7483,7 @@
         <f>$B$17*0.2</f>
         <v>26</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -7284,7 +7510,7 @@
         <f>$B$17*0.7</f>
         <v>91</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -7311,7 +7537,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>26</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -7338,7 +7564,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -7348,7 +7574,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -7365,7 +7591,7 @@
         <f>$B$17*0.25</f>
         <v>32.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -7392,7 +7618,7 @@
         <f>$B$17*0.25</f>
         <v>32.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -7418,7 +7644,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -7431,10 +7657,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -7444,7 +7670,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -7464,7 +7690,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -7481,7 +7707,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -7511,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -7519,19 +7745,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>967.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -7549,7 +7774,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7885,8 +8110,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -7915,7 +8140,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -7945,7 +8170,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -7975,7 +8200,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -8005,7 +8230,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -8034,7 +8259,7 @@
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -8063,7 +8288,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -8093,7 +8318,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -8123,7 +8348,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -8153,7 +8378,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -8183,7 +8408,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -8213,7 +8438,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -8243,7 +8468,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -8272,7 +8497,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -8285,7 +8510,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>128</v>
@@ -8301,7 +8526,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -8324,7 +8549,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -8344,7 +8569,7 @@
       <c r="B28" s="3">
         <v>45</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -8374,7 +8599,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -8382,19 +8607,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4350</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -8412,7 +8636,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8722,8 +8946,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>46</v>
@@ -8750,7 +8974,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -8778,7 +9002,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -8806,7 +9030,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -8834,7 +9058,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -8861,7 +9085,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -8888,7 +9112,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -8916,7 +9140,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -8944,7 +9168,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -8972,7 +9196,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -9000,7 +9224,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -9028,7 +9252,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -9056,7 +9280,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -9083,7 +9307,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -9096,7 +9320,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>121</v>
@@ -9110,7 +9334,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -9131,7 +9355,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -9149,7 +9373,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -9179,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -9187,19 +9411,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1260</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -9217,7 +9440,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9513,8 +9736,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -9950,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -9958,7 +10181,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
@@ -9967,7 +10190,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9988,7 +10211,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10325,8 +10548,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -10355,7 +10578,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -10385,7 +10608,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -10415,7 +10638,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -10445,7 +10668,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -10474,7 +10697,7 @@
       <c r="B17" s="1">
         <v>325</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -10503,7 +10726,7 @@
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -10533,7 +10756,7 @@
         <f>$B$17*0.2</f>
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -10563,7 +10786,7 @@
         <f>$B$17*0.7</f>
         <v>227.49999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -10593,7 +10816,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -10623,7 +10846,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -10653,7 +10876,7 @@
         <f>$B$17*0.25</f>
         <v>81.25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -10683,7 +10906,7 @@
         <f>$B$17*0.25</f>
         <v>81.25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -10712,7 +10935,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -10725,10 +10948,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -10741,7 +10964,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -10764,7 +10987,7 @@
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -10784,7 +11007,7 @@
       <c r="B28" s="3">
         <v>200</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -10814,7 +11037,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>26</v>
@@ -10822,19 +11045,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4875</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -10851,8 +11073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749768C8-B131-4FF2-A550-15BF0650554B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11087,7 +11309,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -11116,7 +11338,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -11192,8 +11414,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -11222,7 +11444,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -11252,7 +11474,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -11282,7 +11504,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -11312,7 +11534,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -11341,7 +11563,7 @@
       <c r="B17" s="1">
         <v>250</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -11370,7 +11592,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -11400,7 +11622,7 @@
         <f>$B$17*0.2</f>
         <v>50</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -11430,7 +11652,7 @@
         <f>$B$17*0.7</f>
         <v>175</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -11446,7 +11668,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -11460,7 +11682,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>50</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -11476,7 +11698,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -11490,7 +11712,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -11520,7 +11742,7 @@
         <f>$B$17*0.25</f>
         <v>62.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -11550,7 +11772,7 @@
         <f>$B$17*0.25</f>
         <v>62.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -11579,7 +11801,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -11589,10 +11811,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -11608,7 +11830,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -11631,7 +11853,7 @@
       <c r="B27" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -11651,7 +11873,7 @@
       <c r="B28" s="3">
         <v>65</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -11681,7 +11903,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>23</v>
@@ -11689,19 +11911,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>10500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -11714,7 +11935,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -11949,7 +12170,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -11978,7 +12199,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -12054,8 +12275,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -12084,7 +12305,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -12114,7 +12335,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -12144,7 +12365,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -12174,7 +12395,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -12203,7 +12424,7 @@
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -12232,7 +12453,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -12262,7 +12483,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -12292,7 +12513,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -12308,7 +12529,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -12322,7 +12543,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -12338,7 +12559,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -12352,7 +12573,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -12382,7 +12603,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -12412,7 +12633,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -12441,7 +12662,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -12451,10 +12672,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -12470,7 +12691,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -12493,7 +12714,7 @@
       <c r="B27" s="2">
         <v>1.4</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -12513,7 +12734,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -12543,7 +12764,7 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>32</v>
@@ -12551,19 +12772,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>13875</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -12581,7 +12801,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -12650,8 +12870,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>208</v>
+      <c r="I2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -12818,7 +13038,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -12847,7 +13067,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -12923,8 +13143,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -12953,7 +13173,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -12983,7 +13203,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -13013,7 +13233,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -13043,7 +13263,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -13072,7 +13292,7 @@
       <c r="B17" s="1">
         <v>950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -13101,7 +13321,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -13131,7 +13351,7 @@
         <f>$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -13161,7 +13381,7 @@
         <f>$B$17*0.7</f>
         <v>665</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -13177,7 +13397,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -13191,7 +13411,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>190</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -13207,7 +13427,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -13221,7 +13441,7 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -13237,7 +13457,7 @@
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -13251,7 +13471,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -13281,7 +13501,7 @@
         <f>$B$17*0.25</f>
         <v>237.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -13297,7 +13517,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -13310,7 +13530,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -13320,10 +13540,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -13339,7 +13559,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -13362,7 +13582,7 @@
       <c r="B27" s="2">
         <v>1.3</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -13382,7 +13602,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -13412,7 +13632,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>49</v>
@@ -13420,19 +13640,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>17025</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -13445,7 +13664,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13514,8 +13733,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>207</v>
+      <c r="I2" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -13682,7 +13901,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -13711,7 +13930,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -13787,8 +14006,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -13817,7 +14036,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -13847,7 +14066,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -13877,7 +14096,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -13907,7 +14126,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -13936,7 +14155,7 @@
       <c r="B17" s="1">
         <v>2500</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -13965,7 +14184,7 @@
       <c r="B18" s="1">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -13995,7 +14214,7 @@
         <f>$B$17*0.2</f>
         <v>500</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -14025,7 +14244,7 @@
         <f>$B$17*0.7</f>
         <v>1750</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -14041,7 +14260,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -14055,7 +14274,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>500</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -14071,7 +14290,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -14085,7 +14304,7 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -14101,7 +14320,7 @@
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -14115,7 +14334,7 @@
         <f>$B$17*0.25</f>
         <v>625</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -14131,7 +14350,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -14145,7 +14364,7 @@
         <f>$B$17*0.25</f>
         <v>625</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -14161,7 +14380,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -14174,7 +14393,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -14184,10 +14403,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>116</v>
@@ -14203,7 +14422,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -14226,7 +14445,7 @@
       <c r="B27" s="2">
         <v>0.7</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -14246,7 +14465,7 @@
       <c r="B28" s="3">
         <v>540</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -14276,7 +14495,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>60</v>
@@ -14284,19 +14503,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>19387.5</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>6000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -14309,7 +14527,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -14646,8 +14864,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -14676,7 +14894,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -14706,7 +14924,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -14736,7 +14954,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -14766,7 +14984,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -14795,7 +15013,7 @@
       <c r="B17" s="1">
         <v>475</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -14824,7 +15042,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -14854,7 +15072,7 @@
         <f>$B$17*0.2</f>
         <v>95</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -14884,7 +15102,7 @@
         <f>$B$17*0.7</f>
         <v>332.5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -14914,7 +15132,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>95</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -14944,7 +15162,7 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -14974,7 +15192,7 @@
         <f>$B$17*0.25</f>
         <v>118.75</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -15004,7 +15222,7 @@
         <f>$B$17*0.25</f>
         <v>118.75</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -15033,7 +15251,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -15046,7 +15264,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>115</v>
@@ -15062,7 +15280,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -15085,7 +15303,7 @@
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -15105,7 +15323,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -15135,7 +15353,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>67</v>
@@ -15143,19 +15361,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>26675</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>12500</v>
+        <v>94000</v>
       </c>
     </row>
   </sheetData>
@@ -15173,7 +15390,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15508,8 +15725,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -15538,7 +15755,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -15568,7 +15785,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -15598,7 +15815,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -15628,7 +15845,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -15657,7 +15874,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -15686,7 +15903,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -15716,7 +15933,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -15746,7 +15963,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -15776,7 +15993,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -15806,7 +16023,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -15836,7 +16053,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -15866,7 +16083,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -15895,7 +16112,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -15908,7 +16125,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>118</v>
@@ -15924,7 +16141,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -15947,7 +16164,7 @@
       <c r="B27" s="2">
         <v>1.2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -15967,7 +16184,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -15997,7 +16214,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -16005,19 +16222,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>6575</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>2000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -16035,7 +16251,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16372,8 +16588,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -16402,7 +16618,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -16432,7 +16648,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -16462,7 +16678,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -16492,7 +16708,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -16521,7 +16737,7 @@
       <c r="B17" s="1">
         <v>400</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -16550,7 +16766,7 @@
       <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -16580,7 +16796,7 @@
         <f>$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -16610,7 +16826,7 @@
         <f>$B$17*0.7</f>
         <v>280</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -16640,7 +16856,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -16670,7 +16886,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -16700,7 +16916,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -16730,7 +16946,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -16759,7 +16975,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -16772,10 +16988,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16788,7 +17004,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -16811,7 +17027,7 @@
       <c r="B27" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -16831,7 +17047,7 @@
       <c r="B28" s="3">
         <v>180</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -16861,7 +17077,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -16869,19 +17085,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9056.25</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -16899,7 +17114,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17237,8 +17452,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -17267,7 +17482,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -17297,7 +17512,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -17327,7 +17542,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -17357,7 +17572,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -17386,7 +17601,7 @@
       <c r="B17" s="1">
         <v>425</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -17415,7 +17630,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -17445,7 +17660,7 @@
         <f>$B$17*0.2</f>
         <v>85</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -17475,7 +17690,7 @@
         <f>$B$17*0.7</f>
         <v>297.5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -17505,7 +17720,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>85</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -17535,7 +17750,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -17565,7 +17780,7 @@
         <f>$B$17*0.25</f>
         <v>106.25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -17595,7 +17810,7 @@
         <f>$B$17*0.25</f>
         <v>106.25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -17624,7 +17839,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -17637,7 +17852,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -17653,7 +17868,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -17676,7 +17891,7 @@
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -17696,7 +17911,7 @@
       <c r="B28" s="3">
         <v>210</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -17726,7 +17941,7 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>33</v>
@@ -17734,19 +17949,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9581.25</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>
@@ -17764,7 +17978,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -17996,7 +18210,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -18053,7 +18267,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
@@ -18101,8 +18315,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -18131,7 +18345,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -18161,7 +18375,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -18191,7 +18405,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -18221,7 +18435,7 @@
         <f>B8+B9</f>
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -18250,7 +18464,7 @@
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -18279,7 +18493,7 @@
       <c r="B18" s="1">
         <v>22</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -18309,7 +18523,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -18339,7 +18553,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -18369,7 +18583,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -18399,7 +18613,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -18429,7 +18643,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -18459,7 +18673,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -18488,7 +18702,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -18501,10 +18715,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -18517,7 +18731,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -18540,7 +18754,7 @@
       <c r="B27" s="2">
         <v>1.9</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -18560,7 +18774,7 @@
       <c r="B28" s="3">
         <v>140</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -18590,7 +18804,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -18598,7 +18812,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
         <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
@@ -18607,7 +18821,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>12000</v>
@@ -18628,7 +18842,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -18938,8 +19152,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
@@ -18966,7 +19180,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -18994,7 +19208,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -19022,7 +19236,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -19050,7 +19264,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -19077,7 +19291,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -19104,7 +19318,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -19132,7 +19346,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -19160,7 +19374,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -19188,7 +19402,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -19216,7 +19430,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -19226,7 +19440,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -19244,7 +19458,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -19272,7 +19486,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -19299,7 +19513,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -19312,10 +19526,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -19326,7 +19540,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -19347,7 +19561,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -19365,7 +19579,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -19395,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -19403,16 +19617,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>2307.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
         <v>800</v>
@@ -19428,7 +19641,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -19638,7 +19851,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -19729,8 +19942,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -19756,7 +19969,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -19783,7 +19996,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -19810,7 +20023,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -19837,7 +20050,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -19863,7 +20076,7 @@
       <c r="B17" s="1">
         <v>450</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -19889,7 +20102,7 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -19916,7 +20129,7 @@
         <f>$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -19943,7 +20156,7 @@
         <f>$B$17*0.7</f>
         <v>315</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -19970,7 +20183,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -19997,7 +20210,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -20007,7 +20220,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -20024,7 +20237,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -20051,7 +20264,7 @@
         <f>$B$17*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -20077,7 +20290,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -20090,10 +20303,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -20103,7 +20316,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -20123,7 +20336,7 @@
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -20140,7 +20353,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -20170,7 +20383,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -20178,19 +20391,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>7481.25</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -20208,7 +20420,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -20415,7 +20627,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -20506,8 +20718,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -20533,7 +20745,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -20560,7 +20772,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -20587,7 +20799,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -20614,7 +20826,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -20640,7 +20852,7 @@
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -20666,7 +20878,7 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -20693,7 +20905,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -20720,7 +20932,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -20747,7 +20959,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -20774,7 +20986,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -20784,7 +20996,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -20801,7 +21013,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -20828,7 +21040,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -20854,7 +21066,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -20867,10 +21079,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -20880,7 +21092,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -20900,7 +21112,7 @@
       <c r="B27" s="2">
         <v>1.6</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -20917,7 +21129,7 @@
       <c r="B28" s="3">
         <v>150</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -20947,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>55</v>
@@ -20955,19 +21167,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9318.75</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -20985,7 +21196,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -21281,8 +21492,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -21308,7 +21519,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -21335,7 +21546,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -21362,7 +21573,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -21389,7 +21600,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -21415,7 +21626,7 @@
       <c r="B17" s="1">
         <v>800</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -21441,7 +21652,7 @@
       <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -21468,7 +21679,7 @@
         <f>$B$17*0.2</f>
         <v>160</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -21495,7 +21706,7 @@
         <f>$B$17*0.7</f>
         <v>560</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -21522,7 +21733,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>160</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -21549,7 +21760,7 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -21559,7 +21770,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -21576,7 +21787,7 @@
         <f>$B$17*0.25</f>
         <v>200</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -21603,7 +21814,7 @@
         <f>$B$17*0.25</f>
         <v>200</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -21629,7 +21840,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -21642,10 +21853,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -21655,7 +21866,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -21675,7 +21886,7 @@
       <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -21692,7 +21903,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -21722,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>46</v>
@@ -21730,19 +21941,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>8793.75</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -21760,7 +21970,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22056,8 +22266,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -22083,7 +22293,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -22110,7 +22320,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -22137,7 +22347,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>15</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -22164,7 +22374,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -22190,7 +22400,7 @@
       <c r="B17" s="1">
         <v>650</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -22216,7 +22426,7 @@
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -22243,7 +22453,7 @@
         <f>$B$17*0.2</f>
         <v>130</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -22270,7 +22480,7 @@
         <f>$B$17*0.7</f>
         <v>454.99999999999994</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -22297,7 +22507,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>130</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -22324,7 +22534,7 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -22334,7 +22544,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -22351,7 +22561,7 @@
         <f>$B$17*0.25</f>
         <v>162.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -22378,7 +22588,7 @@
         <f>$B$17*0.25</f>
         <v>162.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -22404,7 +22614,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -22417,10 +22627,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -22430,7 +22640,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -22450,7 +22660,7 @@
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -22467,7 +22677,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -22497,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>62</v>
@@ -22505,19 +22715,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>13368.75</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>32000</v>
       </c>
     </row>
   </sheetData>
@@ -22535,7 +22744,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22767,7 +22976,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -22796,7 +23005,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -22872,8 +23081,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -22902,7 +23111,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -22932,7 +23141,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -22962,7 +23171,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>32</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -22992,7 +23201,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -23021,7 +23230,7 @@
       <c r="B17" s="1">
         <v>5000</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -23050,7 +23259,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -23080,7 +23289,7 @@
         <f>$B$17*0.2</f>
         <v>1000</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -23110,7 +23319,7 @@
         <f>$B$17*0.7</f>
         <v>3500</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -23126,7 +23335,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -23140,7 +23349,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>1000</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -23156,7 +23365,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -23170,7 +23379,7 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -23180,13 +23389,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -23200,7 +23409,7 @@
         <f>$B$17*0.25</f>
         <v>1250</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -23216,7 +23425,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -23230,7 +23439,7 @@
         <f>$B$17*0.25</f>
         <v>1250</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -23246,7 +23455,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -23259,7 +23468,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -23272,10 +23481,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -23288,7 +23497,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -23311,7 +23520,7 @@
       <c r="B27" s="2">
         <v>1.4</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -23331,7 +23540,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -23361,7 +23570,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -23369,19 +23578,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>21831.25</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>7000</v>
+        <v>55000</v>
       </c>
     </row>
   </sheetData>
@@ -23399,7 +23607,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -23632,7 +23840,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -23661,7 +23869,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -23737,8 +23945,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -23767,7 +23975,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -23797,7 +24005,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -23827,7 +24035,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -23857,7 +24065,7 @@
         <f>B8+B9</f>
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -23886,7 +24094,7 @@
       <c r="B17" s="1">
         <v>1950</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -23915,7 +24123,7 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -23945,7 +24153,7 @@
         <f>$B$17*0.2</f>
         <v>390</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -23975,7 +24183,7 @@
         <f>$B$17*0.7</f>
         <v>1365</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -23991,7 +24199,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -24005,7 +24213,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>390</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -24021,7 +24229,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -24035,7 +24243,7 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -24045,13 +24253,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -24065,7 +24273,7 @@
         <f>$B$17*0.25</f>
         <v>487.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -24081,7 +24289,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -24095,7 +24303,7 @@
         <f>$B$17*0.25</f>
         <v>487.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -24111,7 +24319,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -24124,7 +24332,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -24137,10 +24345,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -24153,7 +24361,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -24176,7 +24384,7 @@
       <c r="B27" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -24196,7 +24404,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -24226,7 +24434,7 @@
         <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>59</v>
@@ -24234,19 +24442,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>15762.5</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>5000</v>
+        <v>42000</v>
       </c>
     </row>
   </sheetData>
@@ -24264,7 +24471,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -24572,8 +24779,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -24600,7 +24807,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -24628,7 +24835,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -24656,7 +24863,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -24684,7 +24891,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -24711,7 +24918,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -24738,7 +24945,7 @@
       <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -24766,7 +24973,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -24794,7 +25001,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -24822,7 +25029,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -24850,7 +25057,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -24860,7 +25067,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -24878,7 +25085,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -24906,7 +25113,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -24933,7 +25140,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -24946,7 +25153,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -24958,7 +25165,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -24979,7 +25186,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -24997,7 +25204,7 @@
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -25012,7 +25219,7 @@
       <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="E29" t="s">
         <v>129</v>
       </c>
@@ -25028,7 +25235,7 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -25036,19 +25243,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>1282.5</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -25066,7 +25272,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25376,8 +25582,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
@@ -25404,7 +25610,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -25432,7 +25638,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -25460,7 +25666,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -25488,7 +25694,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -25515,7 +25721,7 @@
       <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -25542,7 +25748,7 @@
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -25570,7 +25776,7 @@
         <f>$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -25598,7 +25804,7 @@
         <f>$B$17*0.7</f>
         <v>70</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -25626,7 +25832,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -25654,7 +25860,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -25664,7 +25870,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -25682,7 +25888,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -25710,7 +25916,7 @@
         <f>$B$17*0.25</f>
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -25737,7 +25943,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -25750,10 +25956,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -25764,7 +25970,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -25785,7 +25991,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -25803,7 +26009,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -25833,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -25841,19 +26047,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>2352.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>800</v>
+        <v>5500</v>
       </c>
     </row>
   </sheetData>
@@ -25871,7 +26076,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -25905,7 +26110,7 @@
         <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
@@ -25934,10 +26139,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -25967,7 +26172,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -26150,7 +26355,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>66</v>
@@ -26194,8 +26399,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>30</v>
@@ -26222,7 +26427,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>19</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -26250,7 +26455,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -26278,7 +26483,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -26306,7 +26511,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -26333,7 +26538,7 @@
       <c r="B17" s="1">
         <v>150</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -26360,7 +26565,7 @@
       <c r="B18" s="1">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -26388,7 +26593,7 @@
         <f>$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -26416,7 +26621,7 @@
         <f>$B$17*0.7</f>
         <v>105</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -26444,7 +26649,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -26472,7 +26677,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -26482,7 +26687,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -26500,7 +26705,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -26528,7 +26733,7 @@
         <f>$B$17*0.25</f>
         <v>37.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -26555,7 +26760,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -26568,10 +26773,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -26582,7 +26787,7 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -26603,7 +26808,7 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -26621,7 +26826,7 @@
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -26651,7 +26856,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>76</v>
@@ -26659,19 +26864,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>41980</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>40000</v>
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -26689,7 +26893,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -26896,7 +27100,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -26987,8 +27191,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -27014,7 +27218,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -27041,7 +27245,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -27068,7 +27272,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -27095,7 +27299,7 @@
         <f>B8+B9</f>
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -27121,7 +27325,7 @@
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -27147,7 +27351,7 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -27174,7 +27378,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -27201,7 +27405,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -27228,7 +27432,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -27255,7 +27459,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -27265,7 +27469,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -27282,7 +27486,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -27309,7 +27513,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -27335,7 +27539,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -27348,10 +27552,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -27361,7 +27565,7 @@
       <c r="B26" s="2">
         <v>1.9</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -27381,7 +27585,7 @@
       <c r="B27" s="2">
         <v>0</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -27398,7 +27602,7 @@
       <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -27428,7 +27632,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>36</v>
@@ -27436,19 +27640,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9187.5</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -27465,8 +27668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDEEB5D-5116-4821-8582-0B2CCC024A7E}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -27673,7 +27876,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
@@ -27764,8 +27967,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>35</v>
@@ -28042,7 +28245,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -28122,7 +28325,7 @@
         <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -28201,7 +28404,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -28209,19 +28412,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))</f>
-        <v>5100</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
@@ -28231,10 +28433,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41015625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -28534,8 +28736,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -28561,7 +28763,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
@@ -28588,7 +28790,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
@@ -28615,7 +28817,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
@@ -28642,7 +28844,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1">
@@ -28668,7 +28870,7 @@
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1">
@@ -28694,7 +28896,7 @@
       <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1">
@@ -28721,7 +28923,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1">
@@ -28748,7 +28950,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1">
@@ -28775,7 +28977,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
@@ -28802,7 +29004,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1">
@@ -28829,7 +29031,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1">
@@ -28856,7 +29058,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1">
@@ -28882,7 +29084,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1">
@@ -28899,12 +29101,12 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1">
@@ -28924,7 +29126,7 @@
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="E27" t="s">
         <v>112</v>
       </c>
@@ -28941,7 +29143,7 @@
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="E28" t="s">
         <v>122</v>
       </c>
@@ -28966,6 +29168,21 @@
       </c>
       <c r="B30">
         <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B6)*75*(IF(F27="Groß",1.75,IF(F27="Mittel",1,IF(F27="Klein",0.3,1))))+F31</f>
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28983,7 +29200,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29281,8 +29498,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -29642,10 +29859,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -29717,7 +29934,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -29725,19 +29942,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -29756,7 +29972,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -29816,7 +30032,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
@@ -29845,7 +30061,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
@@ -30060,8 +30276,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -30338,7 +30554,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -30421,10 +30637,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -30500,7 +30716,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>34</v>
@@ -30508,19 +30724,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -30539,7 +30754,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -30800,7 +31015,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>63</v>
@@ -30876,8 +31091,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -31276,7 +31491,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>118</v>
@@ -31364,7 +31579,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>42</v>
@@ -31372,19 +31587,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>9675</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>4500</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
@@ -31402,7 +31616,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -31465,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -31494,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -31523,7 +31737,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -31712,8 +31926,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -31990,7 +32204,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
@@ -32073,10 +32287,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -32152,7 +32366,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>45</v>
@@ -32160,19 +32374,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>4462.5</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
@@ -32190,7 +32403,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D26"/>
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -32488,8 +32701,8 @@
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>194</v>
+      <c r="C12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -32718,7 +32931,7 @@
         <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
@@ -32745,7 +32958,7 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.5">
@@ -32766,13 +32979,13 @@
         <v>101</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
         <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
@@ -32799,7 +33012,7 @@
         <v>105</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.5">
@@ -32826,7 +33039,7 @@
         <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.5">
@@ -32849,10 +33062,10 @@
         <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
@@ -32928,7 +33141,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>52</v>
@@ -32936,19 +33149,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31">
-        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
-        <v>11137.5</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
